--- a/data/trans_orig/P5_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P5_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7D4A333-966E-41D3-A5C6-2D6F12DFE8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C472EC0-405D-41CF-BAD4-49490C993296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2940E451-39F8-4E26-A458-6F853FE5EB15}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0362A362-D870-42E7-8FEC-9EC75691517C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,769 +77,772 @@
     <t>34,69%</t>
   </si>
   <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
   </si>
   <si>
     <t>29,26%</t>
   </si>
   <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
   </si>
   <si>
     <t>32,13%</t>
   </si>
   <si>
-    <t>26,91%</t>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
   </si>
   <si>
     <t>38,03%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
   </si>
   <si>
     <t>61,97%</t>
   </si>
   <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2016 (Tasa respuesta: 75,92%)</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
   </si>
   <si>
     <t>41,52%</t>
   </si>
   <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
   </si>
   <si>
     <t>58,48%</t>
   </si>
   <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2015 (Tasa respuesta: 75,92%)</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
+    <t>74,02%</t>
   </si>
   <si>
     <t>67,95%</t>
   </si>
   <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
   </si>
   <si>
     <t>67,31%</t>
   </si>
   <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
   </si>
   <si>
     <t>35,76%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
   </si>
   <si>
     <t>34,73%</t>
   </si>
   <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
+    <t>28,91%</t>
   </si>
   <si>
     <t>35,32%</t>
   </si>
   <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
   </si>
   <si>
     <t>64,24%</t>
   </si>
   <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
   </si>
   <si>
     <t>65,27%</t>
   </si>
   <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
+    <t>71,09%</t>
   </si>
   <si>
     <t>64,68%</t>
   </si>
   <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
   </si>
   <si>
     <t>39,63%</t>
   </si>
   <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
   </si>
   <si>
     <t>37,0%</t>
   </si>
   <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
   </si>
   <si>
     <t>60,37%</t>
   </si>
   <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
   </si>
   <si>
     <t>63,0%</t>
   </si>
   <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
   </si>
   <si>
     <t>40,71%</t>
   </si>
   <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
   </si>
   <si>
     <t>35,45%</t>
   </si>
   <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
   </si>
   <si>
     <t>38,18%</t>
   </si>
   <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
   </si>
   <si>
     <t>59,29%</t>
   </si>
   <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
   </si>
   <si>
     <t>64,55%</t>
   </si>
   <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
   </si>
   <si>
     <t>61,82%</t>
   </si>
   <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
   </si>
   <si>
     <t>37,37%</t>
   </si>
   <si>
-    <t>33,91%</t>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
   </si>
   <si>
     <t>35,0%</t>
@@ -848,40 +851,37 @@
     <t>31,58%</t>
   </si>
   <si>
-    <t>38,4%</t>
-  </si>
-  <si>
     <t>36,23%</t>
   </si>
   <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
   </si>
   <si>
     <t>62,63%</t>
   </si>
   <si>
-    <t>66,09%</t>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
   </si>
   <si>
     <t>65,0%</t>
   </si>
   <si>
-    <t>61,6%</t>
-  </si>
-  <si>
     <t>68,42%</t>
   </si>
   <si>
     <t>63,77%</t>
   </si>
   <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
   </si>
   <si>
     <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2023 (Tasa respuesta: 99,9%)</t>
@@ -890,265 +890,265 @@
     <t>14,22%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
   </si>
   <si>
     <t>22,05%</t>
   </si>
   <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
   </si>
   <si>
     <t>85,78%</t>
   </si>
   <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
   </si>
   <si>
     <t>77,95%</t>
   </si>
   <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
   </si>
   <si>
     <t>81,9%</t>
   </si>
   <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
   </si>
   <si>
     <t>22,86%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
   </si>
   <si>
     <t>22,45%</t>
   </si>
   <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
   </si>
   <si>
     <t>77,14%</t>
   </si>
   <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
   </si>
   <si>
     <t>77,55%</t>
   </si>
   <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
   </si>
   <si>
     <t>18,44%</t>
   </si>
   <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>17,98%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
   </si>
   <si>
     <t>18,22%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>81,56%</t>
   </si>
   <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>82,02%</t>
   </si>
   <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>81,78%</t>
   </si>
   <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
   </si>
   <si>
     <t>16,91%</t>
   </si>
   <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
   </si>
   <si>
     <t>15,45%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
   <si>
     <t>85,87%</t>
   </si>
   <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
   </si>
   <si>
     <t>83,09%</t>
   </si>
   <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>17,26%</t>
   </si>
   <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
   </si>
   <si>
     <t>19,09%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>18,12%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
   </si>
   <si>
     <t>82,74%</t>
   </si>
   <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
   </si>
   <si>
     <t>80,91%</t>
   </si>
   <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
   </si>
   <si>
     <t>81,88%</t>
   </si>
   <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A07B6B-6809-48E7-9AB6-34ACB1AC93CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F556ACEC-8994-474B-A757-9B786B5CE4E2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2179,13 +2179,13 @@
         <v>85007</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,13 +2200,13 @@
         <v>105148</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>160</v>
@@ -2215,13 +2215,13 @@
         <v>109015</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>318</v>
@@ -2230,13 +2230,13 @@
         <v>214162</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2304,13 @@
         <v>147648</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>210</v>
@@ -2319,13 +2319,13 @@
         <v>141455</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>432</v>
@@ -2334,13 +2334,13 @@
         <v>289103</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2355,13 @@
         <v>380902</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>536</v>
@@ -2370,13 +2370,13 @@
         <v>361904</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1106</v>
@@ -2385,13 +2385,13 @@
         <v>742805</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,7 +2447,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2467,7 +2467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C88EB52-4486-4774-98B4-7D270BBFCD87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70E6AB8-D252-4C96-B856-BC8AC8879CD3}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2484,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2591,13 +2591,13 @@
         <v>44904</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>58</v>
@@ -2606,13 +2606,13 @@
         <v>39185</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>122</v>
@@ -2621,13 +2621,13 @@
         <v>84089</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2642,13 @@
         <v>67138</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H5" s="7">
         <v>96</v>
@@ -2657,13 +2657,13 @@
         <v>64936</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>190</v>
@@ -2672,13 +2672,13 @@
         <v>132074</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,13 +2746,13 @@
         <v>75605</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>77</v>
@@ -2761,13 +2761,13 @@
         <v>54313</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -2776,13 +2776,13 @@
         <v>129918</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +2797,13 @@
         <v>117619</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>154</v>
@@ -2812,13 +2812,13 @@
         <v>105031</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>318</v>
@@ -2827,13 +2827,13 @@
         <v>222650</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,13 +2901,13 @@
         <v>34331</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -2916,13 +2916,13 @@
         <v>36546</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -2931,13 +2931,13 @@
         <v>70877</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2952,13 @@
         <v>67481</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H11" s="7">
         <v>87</v>
@@ -2967,13 +2967,13 @@
         <v>61434</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>186</v>
@@ -2982,10 +2982,10 @@
         <v>128916</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>159</v>
@@ -3226,13 +3226,13 @@
         <v>181408</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
         <v>549</v>
@@ -3241,13 +3241,13 @@
         <v>387550</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3262,13 @@
         <v>332639</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
         <v>431</v>
@@ -3277,13 +3277,13 @@
         <v>295557</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>907</v>
@@ -3292,13 +3292,13 @@
         <v>628196</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,7 +3354,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3374,7 +3374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FF582E-7B9C-43CF-87BE-7A47FEF0C115}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0399DBBB-5A1D-49AE-8694-1451EB126357}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3391,7 +3391,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3498,13 +3498,13 @@
         <v>32778</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>53</v>
@@ -3513,13 +3513,13 @@
         <v>32916</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>102</v>
@@ -3528,13 +3528,13 @@
         <v>65695</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3549,13 @@
         <v>65489</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>112</v>
@@ -3564,13 +3564,13 @@
         <v>69788</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>213</v>
@@ -3579,13 +3579,13 @@
         <v>135276</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3653,13 @@
         <v>75308</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
         <v>88</v>
@@ -3668,13 +3668,13 @@
         <v>54278</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>204</v>
@@ -3683,13 +3683,13 @@
         <v>129586</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3704,13 @@
         <v>135284</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>160</v>
@@ -3719,10 +3719,10 @@
         <v>101987</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>227</v>
@@ -3889,7 +3889,7 @@
         <v>170711</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>245</v>
@@ -4124,7 +4124,7 @@
         <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>277</v>
@@ -4133,13 +4133,13 @@
         <v>183462</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>591</v>
@@ -4172,10 +4172,10 @@
         <v>273</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7">
         <v>512</v>
@@ -4184,10 +4184,10 @@
         <v>340761</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>276</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>277</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4281,7 +4281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C68BF0-9E7E-40D1-8AE2-D8DBDA43A665}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB13C8B-C6A6-4427-96EF-BC02905DC73E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5168,7 +5168,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P5_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C472EC0-405D-41CF-BAD4-49490C993296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36949329-F06E-4AD1-AC91-20D2C6F90BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0362A362-D870-42E7-8FEC-9EC75691517C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8A771518-59DA-44D3-A085-4063347A5CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
     <t>34,69%</t>
   </si>
   <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
   </si>
   <si>
     <t>32,13%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
     <t>65,31%</t>
   </si>
   <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
   </si>
   <si>
     <t>67,87%</t>
   </si>
   <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1018 +137,1012 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
     <t>22,08%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
   </si>
   <si>
     <t>24,7%</t>
   </si>
   <si>
-    <t>21,11%</t>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
   </si>
   <si>
     <t>28,41%</t>
   </si>
   <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
   </si>
   <si>
     <t>71,59%</t>
   </si>
   <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
   </si>
   <si>
     <t>27,93%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2016 (Tasa respuesta: 75,92%)</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
   </si>
   <si>
     <t>68,39%</t>
   </si>
   <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2016 (Tasa respuesta: 75,92%)</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
     <t>62,63%</t>
   </si>
   <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
   </si>
   <si>
     <t>Hogares según si tiene algún problema medioambiental importante en la zona de residencia en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
   </si>
   <si>
     <t>82,33%</t>
   </si>
   <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F556ACEC-8994-474B-A757-9B786B5CE4E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5984997F-707E-4DF7-9AD3-6901C17729CC}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1678,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>30687</v>
+        <v>22983</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1693,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I4" s="7">
-        <v>22983</v>
+        <v>30687</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1729,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="7">
-        <v>57777</v>
+        <v>55576</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1744,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I5" s="7">
-        <v>55576</v>
+        <v>57777</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1780,25 +1774,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>119</v>
+      </c>
+      <c r="D6" s="7">
+        <v>78559</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>132</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>88464</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>119</v>
-      </c>
-      <c r="I6" s="7">
-        <v>78559</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1833,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D7" s="7">
-        <v>41681</v>
+        <v>51203</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1848,10 +1842,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I7" s="7">
-        <v>51203</v>
+        <v>41681</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1884,10 +1878,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="D8" s="7">
-        <v>147050</v>
+        <v>136043</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1899,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="I8" s="7">
-        <v>136043</v>
+        <v>147050</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1935,25 +1929,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>279</v>
+      </c>
+      <c r="D9" s="7">
+        <v>187246</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>284</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>188731</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>279</v>
-      </c>
-      <c r="I9" s="7">
-        <v>187246</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1988,10 +1982,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D10" s="7">
-        <v>32333</v>
+        <v>25209</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2003,10 +1997,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I10" s="7">
-        <v>25209</v>
+        <v>32333</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2039,10 +2033,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D11" s="7">
-        <v>70928</v>
+        <v>61270</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2054,10 +2048,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="I11" s="7">
-        <v>61270</v>
+        <v>70928</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2090,25 +2084,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>127</v>
+      </c>
+      <c r="D12" s="7">
+        <v>86479</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>153</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>103261</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>127</v>
-      </c>
-      <c r="I12" s="7">
-        <v>86479</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2143,10 +2137,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7">
-        <v>42946</v>
+        <v>42060</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2158,10 +2152,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I13" s="7">
-        <v>42060</v>
+        <v>42946</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2179,13 +2173,13 @@
         <v>85007</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,34 +2188,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>160</v>
+      </c>
+      <c r="D14" s="7">
+        <v>109015</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>158</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>105148</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="7">
-        <v>160</v>
-      </c>
-      <c r="I14" s="7">
-        <v>109015</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>318</v>
@@ -2230,13 +2224,13 @@
         <v>214162</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,25 +2239,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>221</v>
+      </c>
+      <c r="D15" s="7">
+        <v>151075</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>223</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>148094</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>221</v>
-      </c>
-      <c r="I15" s="7">
-        <v>151075</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2298,34 +2292,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>210</v>
+      </c>
+      <c r="D16" s="7">
+        <v>141455</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
         <v>222</v>
       </c>
-      <c r="D16" s="7">
-        <v>147648</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="7">
-        <v>210</v>
-      </c>
       <c r="I16" s="7">
-        <v>141455</v>
+        <v>147647</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>432</v>
@@ -2334,13 +2328,13 @@
         <v>289103</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,34 +2343,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>536</v>
+      </c>
+      <c r="D17" s="7">
+        <v>361904</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
         <v>570</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>380902</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="7">
-        <v>536</v>
-      </c>
-      <c r="I17" s="7">
-        <v>361904</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1106</v>
@@ -2385,13 +2379,13 @@
         <v>742805</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,25 +2394,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>746</v>
+      </c>
+      <c r="D18" s="7">
+        <v>503359</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>792</v>
       </c>
-      <c r="D18" s="7">
-        <v>528550</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>746</v>
-      </c>
       <c r="I18" s="7">
-        <v>503359</v>
+        <v>528549</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2447,7 +2441,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2467,7 +2461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70E6AB8-D252-4C96-B856-BC8AC8879CD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097D2B84-A850-43C1-8D74-0D3672F3DB39}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2484,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2585,34 +2579,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>58</v>
+      </c>
+      <c r="D4" s="7">
+        <v>39185</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="7">
         <v>64</v>
       </c>
-      <c r="D4" s="7">
-        <v>44904</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="7">
-        <v>58</v>
-      </c>
       <c r="I4" s="7">
-        <v>39185</v>
+        <v>44905</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>122</v>
@@ -2621,13 +2615,13 @@
         <v>84089</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,34 +2630,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>96</v>
+      </c>
+      <c r="D5" s="7">
+        <v>64936</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="7">
         <v>94</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>67138</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="7">
-        <v>96</v>
-      </c>
-      <c r="I5" s="7">
-        <v>64936</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>190</v>
@@ -2672,13 +2666,13 @@
         <v>132074</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,25 +2681,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>154</v>
+      </c>
+      <c r="D6" s="7">
+        <v>104121</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>158</v>
       </c>
-      <c r="D6" s="7">
-        <v>112042</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>154</v>
-      </c>
       <c r="I6" s="7">
-        <v>104121</v>
+        <v>112043</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2740,34 +2734,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>77</v>
+      </c>
+      <c r="D7" s="7">
+        <v>54313</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="7">
         <v>104</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>75605</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="7">
-        <v>77</v>
-      </c>
-      <c r="I7" s="7">
-        <v>54313</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -2776,13 +2770,13 @@
         <v>129918</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,34 +2785,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>154</v>
+      </c>
+      <c r="D8" s="7">
+        <v>105031</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="7">
         <v>164</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>117619</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="7">
-        <v>154</v>
-      </c>
-      <c r="I8" s="7">
-        <v>105031</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>318</v>
@@ -2827,13 +2821,13 @@
         <v>222650</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,25 +2836,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>231</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159344</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>268</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>193224</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>231</v>
-      </c>
-      <c r="I9" s="7">
-        <v>159344</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2895,34 +2889,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>51</v>
+      </c>
+      <c r="D10" s="7">
+        <v>36546</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="7">
         <v>50</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>34331</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="7">
-        <v>51</v>
-      </c>
-      <c r="I10" s="7">
-        <v>36546</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>101</v>
@@ -2931,13 +2925,13 @@
         <v>70877</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,34 +2940,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>87</v>
+      </c>
+      <c r="D11" s="7">
+        <v>61434</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="7">
         <v>99</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>67481</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" s="7">
-        <v>87</v>
-      </c>
-      <c r="I11" s="7">
-        <v>61434</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>186</v>
@@ -2982,13 +2976,13 @@
         <v>128916</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,25 +2991,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>138</v>
+      </c>
+      <c r="D12" s="7">
+        <v>97980</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>149</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>101812</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>138</v>
-      </c>
-      <c r="I12" s="7">
-        <v>97980</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3050,34 +3044,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>70</v>
+      </c>
+      <c r="D13" s="7">
+        <v>51365</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="7">
         <v>75</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>51301</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H13" s="7">
-        <v>70</v>
-      </c>
-      <c r="I13" s="7">
-        <v>51365</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -3086,13 +3080,13 @@
         <v>102665</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,34 +3095,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>94</v>
+      </c>
+      <c r="D14" s="7">
+        <v>64155</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="7">
         <v>119</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>80401</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" s="7">
-        <v>94</v>
-      </c>
-      <c r="I14" s="7">
-        <v>64155</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>213</v>
@@ -3137,13 +3131,13 @@
         <v>144556</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,25 +3146,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>164</v>
+      </c>
+      <c r="D15" s="7">
+        <v>115520</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>194</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>131702</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>164</v>
-      </c>
-      <c r="I15" s="7">
-        <v>115520</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3205,34 +3199,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>256</v>
+      </c>
+      <c r="D16" s="7">
+        <v>181408</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="7">
         <v>293</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>206142</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="7">
-        <v>256</v>
-      </c>
-      <c r="I16" s="7">
-        <v>181408</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>549</v>
@@ -3241,13 +3235,13 @@
         <v>387550</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,34 +3250,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>431</v>
+      </c>
+      <c r="D17" s="7">
+        <v>295557</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H17" s="7">
         <v>476</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>332639</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H17" s="7">
-        <v>431</v>
-      </c>
-      <c r="I17" s="7">
-        <v>295557</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
         <v>907</v>
@@ -3292,13 +3286,13 @@
         <v>628196</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,25 +3301,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>687</v>
+      </c>
+      <c r="D18" s="7">
+        <v>476965</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>769</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>538781</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>687</v>
-      </c>
-      <c r="I18" s="7">
-        <v>476965</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3354,7 +3348,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3374,7 +3368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0399DBBB-5A1D-49AE-8694-1451EB126357}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6786BA1D-99AE-4E52-AEFD-3613D9954A6B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3391,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3492,34 +3486,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>53</v>
+      </c>
+      <c r="D4" s="7">
+        <v>32916</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H4" s="7">
         <v>49</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>32778</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H4" s="7">
-        <v>53</v>
-      </c>
-      <c r="I4" s="7">
-        <v>32916</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>102</v>
@@ -3528,13 +3522,13 @@
         <v>65695</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,34 +3537,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>112</v>
+      </c>
+      <c r="D5" s="7">
+        <v>69788</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H5" s="7">
         <v>101</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>65489</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H5" s="7">
-        <v>112</v>
-      </c>
-      <c r="I5" s="7">
-        <v>69788</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
         <v>213</v>
@@ -3579,13 +3573,13 @@
         <v>135276</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,25 +3588,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>165</v>
+      </c>
+      <c r="D6" s="7">
+        <v>102704</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>150</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>98267</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>165</v>
-      </c>
-      <c r="I6" s="7">
-        <v>102704</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3647,34 +3641,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>88</v>
+      </c>
+      <c r="D7" s="7">
+        <v>54278</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>75308</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H7" s="7">
-        <v>88</v>
-      </c>
-      <c r="I7" s="7">
-        <v>54278</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
         <v>204</v>
@@ -3683,13 +3677,13 @@
         <v>129586</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,34 +3692,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>160</v>
+      </c>
+      <c r="D8" s="7">
+        <v>101987</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="7">
         <v>195</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>135284</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H8" s="7">
-        <v>160</v>
-      </c>
-      <c r="I8" s="7">
-        <v>101987</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
         <v>355</v>
@@ -3734,13 +3728,13 @@
         <v>237271</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,25 +3743,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>248</v>
+      </c>
+      <c r="D9" s="7">
+        <v>156265</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>311</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>210592</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>248</v>
-      </c>
-      <c r="I9" s="7">
-        <v>156265</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3802,34 +3796,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>77</v>
+      </c>
+      <c r="D10" s="7">
+        <v>53393</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10" s="7">
         <v>76</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>52381</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H10" s="7">
-        <v>77</v>
-      </c>
-      <c r="I10" s="7">
-        <v>53393</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
         <v>153</v>
@@ -3838,13 +3832,13 @@
         <v>105774</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,34 +3847,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>130</v>
+      </c>
+      <c r="D11" s="7">
+        <v>90921</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" s="7">
         <v>112</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>79790</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H11" s="7">
-        <v>130</v>
-      </c>
-      <c r="I11" s="7">
-        <v>90921</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M11" s="7">
         <v>242</v>
@@ -3889,13 +3883,13 @@
         <v>170711</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,25 +3898,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>207</v>
+      </c>
+      <c r="D12" s="7">
+        <v>144314</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>188</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>132171</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>207</v>
-      </c>
-      <c r="I12" s="7">
-        <v>144314</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3957,34 +3951,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>59</v>
+      </c>
+      <c r="D13" s="7">
+        <v>42875</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" s="7">
         <v>73</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>52926</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H13" s="7">
-        <v>59</v>
-      </c>
-      <c r="I13" s="7">
-        <v>42875</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M13" s="7">
         <v>132</v>
@@ -3993,13 +3987,13 @@
         <v>95801</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,25 +4002,25 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>110</v>
+      </c>
+      <c r="D14" s="7">
+        <v>78064</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="7">
         <v>103</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>77078</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H14" s="7">
-        <v>110</v>
-      </c>
-      <c r="I14" s="7">
-        <v>78064</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>259</v>
@@ -4059,25 +4053,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>169</v>
+      </c>
+      <c r="D15" s="7">
+        <v>120939</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>176</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>130004</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>169</v>
-      </c>
-      <c r="I15" s="7">
-        <v>120939</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4112,10 +4106,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="D16" s="7">
-        <v>213394</v>
+        <v>183462</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>265</v>
@@ -4127,10 +4121,10 @@
         <v>267</v>
       </c>
       <c r="H16" s="7">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="I16" s="7">
-        <v>183462</v>
+        <v>213394</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>268</v>
@@ -4139,7 +4133,7 @@
         <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>591</v>
@@ -4148,7 +4142,7 @@
         <v>396856</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>271</v>
@@ -4163,10 +4157,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D17" s="7">
-        <v>357639</v>
+        <v>340761</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>273</v>
@@ -4178,19 +4172,19 @@
         <v>275</v>
       </c>
       <c r="H17" s="7">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I17" s="7">
-        <v>340761</v>
+        <v>357639</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>1023</v>
@@ -4199,7 +4193,7 @@
         <v>698400</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>278</v>
+        <v>173</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>279</v>
@@ -4214,25 +4208,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>789</v>
+      </c>
+      <c r="D18" s="7">
+        <v>524223</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>825</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>571033</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>789</v>
-      </c>
-      <c r="I18" s="7">
-        <v>524223</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4261,7 +4255,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4281,7 +4275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB13C8B-C6A6-4427-96EF-BC02905DC73E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DFE58A-F732-496F-9FCD-FCCC102BD2B6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4399,10 +4393,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>8321</v>
+        <v>12728</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>282</v>
@@ -4414,10 +4408,10 @@
         <v>284</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>12650</v>
+        <v>8384</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>285</v>
@@ -4432,7 +4426,7 @@
         <v>36</v>
       </c>
       <c r="N4" s="7">
-        <v>20971</v>
+        <v>21112</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>288</v>
@@ -4450,10 +4444,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D5" s="7">
-        <v>50182</v>
+        <v>44783</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>291</v>
@@ -4465,10 +4459,10 @@
         <v>293</v>
       </c>
       <c r="H5" s="7">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="I5" s="7">
-        <v>44719</v>
+        <v>53060</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>294</v>
@@ -4483,7 +4477,7 @@
         <v>189</v>
       </c>
       <c r="N5" s="7">
-        <v>94900</v>
+        <v>97843</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>297</v>
@@ -4501,25 +4495,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4534,7 +4528,7 @@
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4554,49 +4548,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>55</v>
+      </c>
+      <c r="D7" s="7">
+        <v>35793</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" s="7">
         <v>59</v>
       </c>
-      <c r="D7" s="7">
-        <v>38700</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H7" s="7">
-        <v>55</v>
-      </c>
       <c r="I7" s="7">
-        <v>36020</v>
+        <v>40553</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
         <v>114</v>
       </c>
       <c r="N7" s="7">
-        <v>74720</v>
+        <v>76346</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,49 +4599,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>202</v>
+      </c>
+      <c r="D8" s="7">
+        <v>122089</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="7">
         <v>217</v>
       </c>
-      <c r="D8" s="7">
-        <v>136599</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H8" s="7">
-        <v>202</v>
-      </c>
       <c r="I8" s="7">
-        <v>121573</v>
+        <v>142001</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
         <v>419</v>
       </c>
       <c r="N8" s="7">
-        <v>258172</v>
+        <v>264091</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,25 +4650,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>257</v>
+      </c>
+      <c r="D9" s="7">
+        <v>157882</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>276</v>
       </c>
-      <c r="D9" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>257</v>
-      </c>
       <c r="I9" s="7">
-        <v>157593</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4689,7 +4683,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>332892</v>
+        <v>340437</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4712,46 +4706,46 @@
         <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>37167</v>
+        <v>31223</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
       </c>
       <c r="I10" s="7">
-        <v>31807</v>
+        <v>38837</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
       </c>
       <c r="N10" s="7">
-        <v>68973</v>
+        <v>70059</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>324</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,46 +4754,46 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>191</v>
+      </c>
+      <c r="D11" s="7">
+        <v>142665</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H11" s="7">
         <v>199</v>
       </c>
-      <c r="D11" s="7">
-        <v>164410</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H11" s="7">
-        <v>191</v>
-      </c>
       <c r="I11" s="7">
-        <v>145138</v>
+        <v>172710</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M11" s="7">
         <v>390</v>
       </c>
       <c r="N11" s="7">
-        <v>309549</v>
+        <v>315375</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>332</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>333</v>
@@ -4811,25 +4805,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>234</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>242</v>
       </c>
-      <c r="D12" s="7">
-        <v>201577</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>234</v>
-      </c>
       <c r="I12" s="7">
-        <v>176945</v>
+        <v>211547</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4844,7 +4838,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378522</v>
+        <v>385434</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4864,10 +4858,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7">
-        <v>40897</v>
+        <v>61326</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>334</v>
@@ -4879,10 +4873,10 @@
         <v>336</v>
       </c>
       <c r="H13" s="7">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="I13" s="7">
-        <v>44071</v>
+        <v>42445</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>337</v>
@@ -4891,22 +4885,22 @@
         <v>338</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
       </c>
       <c r="N13" s="7">
-        <v>84969</v>
+        <v>103770</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>293</v>
+      </c>
+      <c r="D14" s="7">
+        <v>214132</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H14" s="7">
         <v>287</v>
       </c>
-      <c r="D14" s="7">
-        <v>248527</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>263038</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="H14" s="7">
-        <v>293</v>
-      </c>
-      <c r="I14" s="7">
-        <v>216562</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M14" s="7">
         <v>580</v>
       </c>
       <c r="N14" s="7">
-        <v>465088</v>
+        <v>477170</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,7 +4963,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4984,7 +4978,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4999,7 +4993,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5019,49 +5013,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>168</v>
+      </c>
+      <c r="D16" s="7">
+        <v>141069</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H16" s="7">
         <v>172</v>
       </c>
-      <c r="D16" s="7">
-        <v>125085</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>130218</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="H16" s="7">
-        <v>168</v>
-      </c>
-      <c r="I16" s="7">
-        <v>124548</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M16" s="7">
         <v>340</v>
       </c>
       <c r="N16" s="7">
-        <v>249633</v>
+        <v>271288</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,49 +5064,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>774</v>
+      </c>
+      <c r="D17" s="7">
+        <v>523669</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H17" s="7">
         <v>804</v>
       </c>
-      <c r="D17" s="7">
-        <v>599717</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>630810</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="H17" s="7">
-        <v>774</v>
-      </c>
-      <c r="I17" s="7">
-        <v>527992</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>1578</v>
       </c>
       <c r="N17" s="7">
-        <v>1127710</v>
+        <v>1154479</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,25 +5115,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>942</v>
+      </c>
+      <c r="D18" s="7">
+        <v>664738</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>976</v>
       </c>
-      <c r="D18" s="7">
-        <v>724802</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
       <c r="I18" s="7">
-        <v>652540</v>
+        <v>761028</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5154,7 +5148,7 @@
         <v>1918</v>
       </c>
       <c r="N18" s="7">
-        <v>1377343</v>
+        <v>1425767</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5168,7 +5162,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
